--- a/code/content/TOPIC_XLSX/단어빈도수_4.xlsx
+++ b/code/content/TOPIC_XLSX/단어빈도수_4.xlsx
@@ -25,301 +25,301 @@
     <t>버스</t>
   </si>
   <si>
-    <t>것</t>
+    <t>퇴근</t>
+  </si>
+  <si>
+    <t>선</t>
+  </si>
+  <si>
+    <t>노선</t>
+  </si>
+  <si>
+    <t>동</t>
+  </si>
+  <si>
+    <t>분</t>
   </si>
   <si>
     <t>출근</t>
   </si>
   <si>
+    <t>없</t>
+  </si>
+  <si>
+    <t>시간</t>
+  </si>
+  <si>
+    <t>사람</t>
+  </si>
+  <si>
+    <t>영통</t>
+  </si>
+  <si>
+    <t>이용</t>
+  </si>
+  <si>
+    <t>차</t>
+  </si>
+  <si>
+    <t>많</t>
+  </si>
+  <si>
+    <t>증차</t>
+  </si>
+  <si>
+    <t>운행</t>
+  </si>
+  <si>
+    <t>잠실</t>
+  </si>
+  <si>
+    <t>경우</t>
+  </si>
+  <si>
+    <t>인원</t>
+  </si>
+  <si>
+    <t>생각</t>
+  </si>
+  <si>
+    <t>차량</t>
+  </si>
+  <si>
+    <t>시</t>
+  </si>
+  <si>
+    <t>도착</t>
+  </si>
+  <si>
+    <t>출발</t>
+  </si>
+  <si>
+    <t>자리</t>
+  </si>
+  <si>
+    <t>요청</t>
+  </si>
+  <si>
+    <t>건의</t>
+  </si>
+  <si>
+    <t>부탁</t>
+  </si>
+  <si>
+    <t>회사</t>
+  </si>
+  <si>
+    <t>분당</t>
+  </si>
+  <si>
+    <t>감사</t>
+  </si>
+  <si>
     <t>기사님</t>
   </si>
   <si>
-    <t>셔틀</t>
-  </si>
-  <si>
-    <t>분</t>
-  </si>
-  <si>
-    <t>사람</t>
-  </si>
-  <si>
-    <t>차량</t>
-  </si>
-  <si>
-    <t>같</t>
-  </si>
-  <si>
-    <t>없</t>
+    <t>검토</t>
+  </si>
+  <si>
+    <t>정도</t>
+  </si>
+  <si>
+    <t>금요일</t>
+  </si>
+  <si>
+    <t>좋</t>
   </si>
   <si>
     <t>통근</t>
   </si>
   <si>
-    <t>출발</t>
-  </si>
-  <si>
-    <t>시간</t>
-  </si>
-  <si>
-    <t>차</t>
-  </si>
-  <si>
-    <t>수</t>
-  </si>
-  <si>
-    <t>퇴근</t>
-  </si>
-  <si>
-    <t>때</t>
-  </si>
-  <si>
-    <t>운행</t>
+    <t>문제</t>
+  </si>
+  <si>
+    <t>불편</t>
+  </si>
+  <si>
+    <t>아침</t>
+  </si>
+  <si>
+    <t>출퇴근</t>
+  </si>
+  <si>
+    <t>글</t>
+  </si>
+  <si>
+    <t>안녕</t>
+  </si>
+  <si>
+    <t>배차</t>
+  </si>
+  <si>
+    <t>관련</t>
+  </si>
+  <si>
+    <t>답변</t>
+  </si>
+  <si>
+    <t>추가</t>
+  </si>
+  <si>
+    <t>정류장</t>
+  </si>
+  <si>
+    <t>고속도로</t>
+  </si>
+  <si>
+    <t>상황</t>
+  </si>
+  <si>
+    <t>변경</t>
+  </si>
+  <si>
+    <t>양재</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>등</t>
+  </si>
+  <si>
+    <t>마을</t>
+  </si>
+  <si>
+    <t>역</t>
+  </si>
+  <si>
+    <t>사항</t>
+  </si>
+  <si>
+    <t>필요</t>
+  </si>
+  <si>
+    <t>앞</t>
+  </si>
+  <si>
+    <t>직원</t>
+  </si>
+  <si>
+    <t>안</t>
+  </si>
+  <si>
+    <t>쪽</t>
+  </si>
+  <si>
+    <t>현재</t>
+  </si>
+  <si>
+    <t>행</t>
+  </si>
+  <si>
+    <t>전</t>
+  </si>
+  <si>
+    <t>안양</t>
+  </si>
+  <si>
+    <t>개선</t>
+  </si>
+  <si>
+    <t>중</t>
+  </si>
+  <si>
+    <t>탑승</t>
+  </si>
+  <si>
+    <t>번</t>
+  </si>
+  <si>
+    <t>수원</t>
+  </si>
+  <si>
+    <t>성남</t>
+  </si>
+  <si>
+    <t>이상</t>
+  </si>
+  <si>
+    <t>길</t>
+  </si>
+  <si>
+    <t>때문</t>
+  </si>
+  <si>
+    <t>운영</t>
+  </si>
+  <si>
+    <t>중부</t>
+  </si>
+  <si>
+    <t>조정</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>수지</t>
+  </si>
+  <si>
+    <t>경유</t>
+  </si>
+  <si>
+    <t>구리</t>
+  </si>
+  <si>
+    <t>초과</t>
+  </si>
+  <si>
+    <t>신설</t>
+  </si>
+  <si>
+    <t>발생</t>
+  </si>
+  <si>
+    <t>오늘</t>
+  </si>
+  <si>
+    <t>대</t>
   </si>
   <si>
     <t>운전</t>
   </si>
   <si>
-    <t>생각</t>
-  </si>
-  <si>
-    <t>아침</t>
-  </si>
-  <si>
-    <t>거</t>
-  </si>
-  <si>
-    <t>이용</t>
-  </si>
-  <si>
-    <t>앞</t>
-  </si>
-  <si>
-    <t>많</t>
-  </si>
-  <si>
-    <t>좋</t>
-  </si>
-  <si>
-    <t>오늘</t>
-  </si>
-  <si>
-    <t>부탁</t>
-  </si>
-  <si>
-    <t>시</t>
-  </si>
-  <si>
-    <t>선</t>
-  </si>
-  <si>
-    <t>감사</t>
-  </si>
-  <si>
-    <t>회사</t>
-  </si>
-  <si>
-    <t>춥</t>
-  </si>
-  <si>
-    <t>일</t>
-  </si>
-  <si>
-    <t>불편</t>
-  </si>
-  <si>
-    <t>히터</t>
-  </si>
-  <si>
-    <t>자리</t>
-  </si>
-  <si>
-    <t>안</t>
-  </si>
-  <si>
-    <t>경우</t>
-  </si>
-  <si>
-    <t>정도</t>
-  </si>
-  <si>
-    <t>글</t>
-  </si>
-  <si>
-    <t>출퇴근</t>
-  </si>
-  <si>
-    <t>사내</t>
-  </si>
-  <si>
-    <t>기사분</t>
-  </si>
-  <si>
-    <t>조</t>
-  </si>
-  <si>
-    <t>전</t>
-  </si>
-  <si>
-    <t>에어컨</t>
-  </si>
-  <si>
-    <t>관광</t>
-  </si>
-  <si>
-    <t>노선</t>
-  </si>
-  <si>
-    <t>도착</t>
-  </si>
-  <si>
-    <t>안전</t>
+    <t>그렇</t>
+  </si>
+  <si>
+    <t>문의</t>
+  </si>
+  <si>
+    <t>천호</t>
+  </si>
+  <si>
+    <t>후</t>
+  </si>
+  <si>
+    <t>담당자</t>
   </si>
   <si>
     <t>좌석</t>
   </si>
   <si>
-    <t>말</t>
-  </si>
-  <si>
-    <t>문제</t>
-  </si>
-  <si>
-    <t>기사</t>
-  </si>
-  <si>
-    <t>문</t>
-  </si>
-  <si>
-    <t>정차</t>
-  </si>
-  <si>
-    <t>관련</t>
-  </si>
-  <si>
-    <t>개선</t>
-  </si>
-  <si>
-    <t>때문</t>
-  </si>
-  <si>
-    <t>조치</t>
-  </si>
-  <si>
-    <t>주차장</t>
-  </si>
-  <si>
-    <t>아저씨</t>
-  </si>
-  <si>
-    <t>쪽</t>
-  </si>
-  <si>
-    <t>덥</t>
-  </si>
-  <si>
-    <t>그렇</t>
-  </si>
-  <si>
-    <t>탑승</t>
-  </si>
-  <si>
-    <t>냄새</t>
-  </si>
-  <si>
-    <t>온도</t>
-  </si>
-  <si>
-    <t>소리</t>
-  </si>
-  <si>
-    <t>직원</t>
-  </si>
-  <si>
-    <t>사항</t>
-  </si>
-  <si>
-    <t>요청</t>
-  </si>
-  <si>
-    <t>데</t>
-  </si>
-  <si>
-    <t>길</t>
-  </si>
-  <si>
-    <t>안녕</t>
-  </si>
-  <si>
-    <t>승객</t>
-  </si>
-  <si>
-    <t>늦</t>
-  </si>
-  <si>
-    <t>주세</t>
-  </si>
-  <si>
-    <t>날씨</t>
-  </si>
-  <si>
-    <t>중</t>
-  </si>
-  <si>
-    <t>어제</t>
-  </si>
-  <si>
-    <t>후</t>
-  </si>
-  <si>
-    <t>이천</t>
-  </si>
-  <si>
-    <t>난방</t>
-  </si>
-  <si>
-    <t>크</t>
-  </si>
-  <si>
-    <t>등</t>
-  </si>
-  <si>
-    <t>번</t>
-  </si>
-  <si>
-    <t>필요</t>
-  </si>
-  <si>
-    <t>곳</t>
-  </si>
-  <si>
-    <t>고담</t>
-  </si>
-  <si>
-    <t>뒤</t>
-  </si>
-  <si>
-    <t>수고</t>
+    <t>최근</t>
+  </si>
+  <si>
+    <t>광주</t>
   </si>
   <si>
     <t>사고</t>
   </si>
   <si>
-    <t>정류장</t>
-  </si>
-  <si>
-    <t>리</t>
-  </si>
-  <si>
-    <t>확인</t>
-  </si>
-  <si>
-    <t>요즘</t>
-  </si>
-  <si>
-    <t>이렇</t>
-  </si>
-  <si>
-    <t>임산부</t>
+    <t>부분</t>
+  </si>
+  <si>
+    <t>부족</t>
+  </si>
+  <si>
+    <t>어떻</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2593</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1235</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>635</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -743,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>631</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>607</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -765,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>549</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>548</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>505</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>497</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>478</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>475</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>424</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>421</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -853,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>417</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -864,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>411</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -875,7 +875,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>383</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>349</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -897,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>306</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -908,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>297</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -919,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -930,7 +930,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>286</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>276</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -952,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>272</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -963,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>272</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -974,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>268</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -985,7 +985,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>252</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -996,7 +996,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>249</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1018,7 +1018,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>249</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>247</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1040,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>240</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1051,7 +1051,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>240</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1062,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>234</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1073,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>228</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1084,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>225</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>216</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>202</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1128,7 +1128,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>200</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1139,7 +1139,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>198</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1150,7 +1150,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>197</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1161,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>195</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1172,7 +1172,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>194</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1183,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>191</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1194,7 +1194,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>186</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1205,7 +1205,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>185</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1216,7 +1216,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>183</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>178</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1238,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>178</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1249,7 +1249,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>172</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1260,7 +1260,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1271,7 +1271,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1282,7 +1282,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1293,7 +1293,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1304,7 +1304,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>151</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1315,7 +1315,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>149</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>146</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1337,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1359,7 +1359,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1370,7 +1370,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1381,7 +1381,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>139</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1392,7 +1392,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>137</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1403,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1414,7 +1414,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1425,7 +1425,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>134</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1447,7 +1447,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1480,7 +1480,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>127</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1491,7 +1491,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1502,7 +1502,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1513,7 +1513,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1524,7 +1524,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1535,7 +1535,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1546,7 +1546,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1557,7 +1557,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1568,7 +1568,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1579,7 +1579,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1601,7 +1601,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>116</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1612,7 +1612,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>116</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1623,7 +1623,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1634,7 +1634,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1656,7 +1656,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1667,7 +1667,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1678,7 +1678,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1689,7 +1689,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1700,7 +1700,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1733,7 +1733,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1744,7 +1744,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1766,7 +1766,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1777,7 +1777,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1788,7 +1788,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/code/content/TOPIC_XLSX/단어빈도수_4.xlsx
+++ b/code/content/TOPIC_XLSX/단어빈도수_4.xlsx
@@ -22,304 +22,304 @@
     <t>빈도수</t>
   </si>
   <si>
+    <t>분</t>
+  </si>
+  <si>
+    <t>감사</t>
+  </si>
+  <si>
     <t>버스</t>
   </si>
   <si>
+    <t>없</t>
+  </si>
+  <si>
+    <t>보안</t>
+  </si>
+  <si>
+    <t>좋</t>
+  </si>
+  <si>
+    <t>글</t>
+  </si>
+  <si>
+    <t>사람</t>
+  </si>
+  <si>
+    <t>이용</t>
+  </si>
+  <si>
+    <t>많</t>
+  </si>
+  <si>
+    <t>생각</t>
+  </si>
+  <si>
+    <t>직원</t>
+  </si>
+  <si>
+    <t>문의</t>
+  </si>
+  <si>
+    <t>관련</t>
+  </si>
+  <si>
+    <t>사원</t>
+  </si>
+  <si>
+    <t>회사</t>
+  </si>
+  <si>
+    <t>사내</t>
+  </si>
+  <si>
+    <t>차량</t>
+  </si>
+  <si>
+    <t>하이닉스</t>
+  </si>
+  <si>
+    <t>불편</t>
+  </si>
+  <si>
+    <t>시</t>
+  </si>
+  <si>
+    <t>시간</t>
+  </si>
+  <si>
+    <t>사항</t>
+  </si>
+  <si>
+    <t>옥계</t>
+  </si>
+  <si>
+    <t>식당</t>
+  </si>
+  <si>
+    <t>부탁</t>
+  </si>
+  <si>
+    <t>사용</t>
+  </si>
+  <si>
+    <t>답변</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>통근</t>
+  </si>
+  <si>
+    <t>주차장</t>
+  </si>
+  <si>
+    <t>말</t>
+  </si>
+  <si>
+    <t>하</t>
+  </si>
+  <si>
+    <t>문</t>
+  </si>
+  <si>
+    <t>안녕</t>
+  </si>
+  <si>
+    <t>안</t>
+  </si>
+  <si>
+    <t>셔틀</t>
+  </si>
+  <si>
+    <t>개선</t>
+  </si>
+  <si>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>요원</t>
+  </si>
+  <si>
+    <t>분실물</t>
+  </si>
+  <si>
+    <t>기숙사</t>
+  </si>
+  <si>
+    <t>전</t>
+  </si>
+  <si>
+    <t>근무</t>
+  </si>
+  <si>
+    <t>출근</t>
+  </si>
+  <si>
+    <t>오늘</t>
+  </si>
+  <si>
+    <t>후</t>
+  </si>
+  <si>
+    <t>앞</t>
+  </si>
+  <si>
+    <t>이스텍</t>
+  </si>
+  <si>
+    <t>안녕하</t>
+  </si>
+  <si>
+    <t>친절</t>
+  </si>
+  <si>
+    <t>치료</t>
+  </si>
+  <si>
+    <t>요청</t>
+  </si>
+  <si>
+    <t>중</t>
+  </si>
+  <si>
     <t>퇴근</t>
   </si>
   <si>
-    <t>선</t>
-  </si>
-  <si>
-    <t>노선</t>
-  </si>
-  <si>
-    <t>동</t>
-  </si>
-  <si>
-    <t>분</t>
-  </si>
-  <si>
-    <t>출근</t>
-  </si>
-  <si>
-    <t>없</t>
-  </si>
-  <si>
-    <t>시간</t>
-  </si>
-  <si>
-    <t>사람</t>
-  </si>
-  <si>
-    <t>영통</t>
-  </si>
-  <si>
-    <t>이용</t>
-  </si>
-  <si>
-    <t>차</t>
-  </si>
-  <si>
-    <t>많</t>
-  </si>
-  <si>
-    <t>증차</t>
-  </si>
-  <si>
-    <t>운행</t>
-  </si>
-  <si>
-    <t>잠실</t>
+    <t>등</t>
+  </si>
+  <si>
+    <t>어떻</t>
+  </si>
+  <si>
+    <t>헬스장</t>
+  </si>
+  <si>
+    <t>가능</t>
+  </si>
+  <si>
+    <t>관리</t>
+  </si>
+  <si>
+    <t>구성원</t>
+  </si>
+  <si>
+    <t>칭찬</t>
+  </si>
+  <si>
+    <t>문제</t>
+  </si>
+  <si>
+    <t>화장실</t>
+  </si>
+  <si>
+    <t>조치</t>
+  </si>
+  <si>
+    <t>가방</t>
+  </si>
+  <si>
+    <t>서비스</t>
+  </si>
+  <si>
+    <t>분실</t>
+  </si>
+  <si>
+    <t>하세</t>
+  </si>
+  <si>
+    <t>흡연</t>
+  </si>
+  <si>
+    <t>수고</t>
+  </si>
+  <si>
+    <t>연락</t>
+  </si>
+  <si>
+    <t>아이</t>
+  </si>
+  <si>
+    <t>체육관</t>
+  </si>
+  <si>
+    <t>청주</t>
+  </si>
+  <si>
+    <t>검색</t>
+  </si>
+  <si>
+    <t>정문</t>
+  </si>
+  <si>
+    <t>안내</t>
+  </si>
+  <si>
+    <t>교체</t>
+  </si>
+  <si>
+    <t>운동</t>
+  </si>
+  <si>
+    <t>부분</t>
+  </si>
+  <si>
+    <t>모습</t>
+  </si>
+  <si>
+    <t>남자</t>
+  </si>
+  <si>
+    <t>업무</t>
+  </si>
+  <si>
+    <t>기분</t>
+  </si>
+  <si>
+    <t>전화</t>
   </si>
   <si>
     <t>경우</t>
   </si>
   <si>
-    <t>인원</t>
-  </si>
-  <si>
-    <t>생각</t>
-  </si>
-  <si>
-    <t>차량</t>
-  </si>
-  <si>
-    <t>시</t>
-  </si>
-  <si>
-    <t>도착</t>
-  </si>
-  <si>
-    <t>출발</t>
-  </si>
-  <si>
-    <t>자리</t>
-  </si>
-  <si>
-    <t>요청</t>
+    <t>예약</t>
+  </si>
+  <si>
+    <t>시설</t>
+  </si>
+  <si>
+    <t>고객</t>
+  </si>
+  <si>
+    <t>좌석</t>
+  </si>
+  <si>
+    <t>이렇</t>
+  </si>
+  <si>
+    <t>검사</t>
   </si>
   <si>
     <t>건의</t>
   </si>
   <si>
-    <t>부탁</t>
-  </si>
-  <si>
-    <t>회사</t>
-  </si>
-  <si>
-    <t>분당</t>
-  </si>
-  <si>
-    <t>감사</t>
-  </si>
-  <si>
-    <t>기사님</t>
-  </si>
-  <si>
-    <t>검토</t>
-  </si>
-  <si>
-    <t>정도</t>
-  </si>
-  <si>
-    <t>금요일</t>
-  </si>
-  <si>
-    <t>좋</t>
-  </si>
-  <si>
-    <t>통근</t>
-  </si>
-  <si>
-    <t>문제</t>
-  </si>
-  <si>
-    <t>불편</t>
-  </si>
-  <si>
-    <t>아침</t>
-  </si>
-  <si>
-    <t>출퇴근</t>
-  </si>
-  <si>
-    <t>글</t>
-  </si>
-  <si>
-    <t>안녕</t>
-  </si>
-  <si>
-    <t>배차</t>
-  </si>
-  <si>
-    <t>관련</t>
-  </si>
-  <si>
-    <t>답변</t>
-  </si>
-  <si>
-    <t>추가</t>
-  </si>
-  <si>
-    <t>정류장</t>
-  </si>
-  <si>
-    <t>고속도로</t>
-  </si>
-  <si>
-    <t>상황</t>
-  </si>
-  <si>
-    <t>변경</t>
-  </si>
-  <si>
-    <t>양재</t>
-  </si>
-  <si>
-    <t>일</t>
-  </si>
-  <si>
-    <t>등</t>
-  </si>
-  <si>
-    <t>마을</t>
-  </si>
-  <si>
-    <t>역</t>
-  </si>
-  <si>
-    <t>사항</t>
-  </si>
-  <si>
-    <t>필요</t>
-  </si>
-  <si>
-    <t>앞</t>
-  </si>
-  <si>
-    <t>직원</t>
-  </si>
-  <si>
-    <t>안</t>
-  </si>
-  <si>
-    <t>쪽</t>
-  </si>
-  <si>
-    <t>현재</t>
-  </si>
-  <si>
-    <t>행</t>
-  </si>
-  <si>
-    <t>전</t>
-  </si>
-  <si>
-    <t>안양</t>
-  </si>
-  <si>
-    <t>개선</t>
-  </si>
-  <si>
-    <t>중</t>
-  </si>
-  <si>
-    <t>탑승</t>
-  </si>
-  <si>
-    <t>번</t>
-  </si>
-  <si>
-    <t>수원</t>
-  </si>
-  <si>
-    <t>성남</t>
-  </si>
-  <si>
-    <t>이상</t>
-  </si>
-  <si>
-    <t>길</t>
-  </si>
-  <si>
-    <t>때문</t>
+    <t>곳</t>
+  </si>
+  <si>
+    <t>터</t>
+  </si>
+  <si>
+    <t>고생</t>
   </si>
   <si>
     <t>운영</t>
   </si>
   <si>
-    <t>중부</t>
-  </si>
-  <si>
-    <t>조정</t>
-  </si>
-  <si>
-    <t>금</t>
-  </si>
-  <si>
-    <t>수지</t>
-  </si>
-  <si>
-    <t>경유</t>
-  </si>
-  <si>
-    <t>구리</t>
-  </si>
-  <si>
-    <t>초과</t>
-  </si>
-  <si>
-    <t>신설</t>
-  </si>
-  <si>
-    <t>발생</t>
-  </si>
-  <si>
-    <t>오늘</t>
-  </si>
-  <si>
-    <t>대</t>
-  </si>
-  <si>
-    <t>운전</t>
-  </si>
-  <si>
-    <t>그렇</t>
-  </si>
-  <si>
-    <t>문의</t>
-  </si>
-  <si>
-    <t>천호</t>
-  </si>
-  <si>
-    <t>후</t>
-  </si>
-  <si>
-    <t>담당자</t>
-  </si>
-  <si>
-    <t>좌석</t>
-  </si>
-  <si>
-    <t>최근</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>사고</t>
-  </si>
-  <si>
-    <t>부분</t>
-  </si>
-  <si>
-    <t>부족</t>
-  </si>
-  <si>
-    <t>어떻</t>
+    <t>소리</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1492</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>763</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>752</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>651</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -743,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>570</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>464</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -765,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>434</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>422</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>396</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>366</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>363</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>361</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>337</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>333</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -853,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>289</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -864,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>281</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -875,7 +875,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>272</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>270</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -897,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>260</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -908,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>251</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -919,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>249</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -930,7 +930,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>237</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>231</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -952,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>224</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -963,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>222</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -974,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>209</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -985,7 +985,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>205</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -996,7 +996,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>201</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>181</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1018,7 +1018,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>181</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1040,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>173</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1051,7 +1051,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>169</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1062,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>161</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1073,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>152</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1084,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>151</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>149</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1128,7 +1128,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1139,7 +1139,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>138</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1150,7 +1150,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>137</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1161,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>135</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1172,7 +1172,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>134</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1183,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1194,7 +1194,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>128</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1205,7 +1205,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1216,7 +1216,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1238,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>116</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1249,7 +1249,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>116</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1260,7 +1260,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1271,7 +1271,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1282,7 +1282,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>111</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1293,7 +1293,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1304,7 +1304,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1315,7 +1315,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1337,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1359,7 +1359,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1370,7 +1370,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1381,7 +1381,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1392,7 +1392,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1403,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1414,7 +1414,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1425,7 +1425,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1447,7 +1447,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1480,7 +1480,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1491,7 +1491,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1502,7 +1502,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1513,7 +1513,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1524,7 +1524,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1535,7 +1535,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1546,7 +1546,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1557,7 +1557,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1568,7 +1568,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1579,7 +1579,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1601,7 +1601,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1612,7 +1612,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1623,7 +1623,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1634,7 +1634,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1656,7 +1656,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1667,7 +1667,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1678,7 +1678,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1689,7 +1689,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1700,7 +1700,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1733,7 +1733,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1744,7 +1744,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1766,7 +1766,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1777,7 +1777,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1788,7 +1788,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
